--- a/feature_extraction/data_central/test_train/all_features.xlsx
+++ b/feature_extraction/data_central/test_train/all_features.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="626">
   <si>
     <t>All attributes</t>
   </si>
@@ -1497,6 +1498,411 @@
   </si>
   <si>
     <t>senti4</t>
+  </si>
+  <si>
+    <t>unigram</t>
+  </si>
+  <si>
+    <t>bigrams new</t>
+  </si>
+  <si>
+    <t>i-mean</t>
+  </si>
+  <si>
+    <t>no-no</t>
+  </si>
+  <si>
+    <t>i-dont</t>
+  </si>
+  <si>
+    <t>all-right</t>
+  </si>
+  <si>
+    <t>you-know</t>
+  </si>
+  <si>
+    <t>i-i</t>
+  </si>
+  <si>
+    <t>this-is</t>
+  </si>
+  <si>
+    <t>i-know</t>
+  </si>
+  <si>
+    <t>and-i</t>
+  </si>
+  <si>
+    <t>you-guys</t>
+  </si>
+  <si>
+    <t>oh-my</t>
+  </si>
+  <si>
+    <t>my-god</t>
+  </si>
+  <si>
+    <t>i-just</t>
+  </si>
+  <si>
+    <t>do-you</t>
+  </si>
+  <si>
+    <t>i-am</t>
+  </si>
+  <si>
+    <t>i-got</t>
+  </si>
+  <si>
+    <t>come-on</t>
+  </si>
+  <si>
+    <t>i-was</t>
+  </si>
+  <si>
+    <t>that-i</t>
+  </si>
+  <si>
+    <t>it-was</t>
+  </si>
+  <si>
+    <t>yknow-what</t>
+  </si>
+  <si>
+    <t>i-cant</t>
+  </si>
+  <si>
+    <t>in-the</t>
+  </si>
+  <si>
+    <t>have-to</t>
+  </si>
+  <si>
+    <t>going-to</t>
+  </si>
+  <si>
+    <t>i-think</t>
+  </si>
+  <si>
+    <t>i-have</t>
+  </si>
+  <si>
+    <t>oh-i</t>
+  </si>
+  <si>
+    <t>i-can</t>
+  </si>
+  <si>
+    <t>know-what</t>
+  </si>
+  <si>
+    <t>and-then</t>
+  </si>
+  <si>
+    <t>of-the</t>
+  </si>
+  <si>
+    <t>a-little</t>
+  </si>
+  <si>
+    <t>thank-you</t>
+  </si>
+  <si>
+    <t>that-you</t>
+  </si>
+  <si>
+    <t>im-not</t>
+  </si>
+  <si>
+    <t>to-be</t>
+  </si>
+  <si>
+    <t>know-i</t>
+  </si>
+  <si>
+    <t>you-are</t>
+  </si>
+  <si>
+    <t>want-to</t>
+  </si>
+  <si>
+    <t>what-i</t>
+  </si>
+  <si>
+    <t>yknow-i</t>
+  </si>
+  <si>
+    <t>you-just</t>
+  </si>
+  <si>
+    <t>no-i</t>
+  </si>
+  <si>
+    <t>well-i</t>
+  </si>
+  <si>
+    <t>have-a</t>
+  </si>
+  <si>
+    <t>but-i</t>
+  </si>
+  <si>
+    <t>i-didnt</t>
+  </si>
+  <si>
+    <t>if-you</t>
+  </si>
+  <si>
+    <t>you-think</t>
+  </si>
+  <si>
+    <t>to-the</t>
+  </si>
+  <si>
+    <t>it-is</t>
+  </si>
+  <si>
+    <t>you-have</t>
+  </si>
+  <si>
+    <t>i-want</t>
+  </si>
+  <si>
+    <t>on-the</t>
+  </si>
+  <si>
+    <t>na-be</t>
+  </si>
+  <si>
+    <t>and-and</t>
+  </si>
+  <si>
+    <t>you-you</t>
+  </si>
+  <si>
+    <t>you-can</t>
+  </si>
+  <si>
+    <t>you-got</t>
+  </si>
+  <si>
+    <t>for-a</t>
+  </si>
+  <si>
+    <t>that-is</t>
+  </si>
+  <si>
+    <t>i-love</t>
+  </si>
+  <si>
+    <t>yeah-i</t>
+  </si>
+  <si>
+    <t>if-i</t>
+  </si>
+  <si>
+    <t>okay-i</t>
+  </si>
+  <si>
+    <t>are-you</t>
+  </si>
+  <si>
+    <t>to-do</t>
+  </si>
+  <si>
+    <t>look-i</t>
+  </si>
+  <si>
+    <t>im-just</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>you-were</t>
+  </si>
+  <si>
+    <t>look-at</t>
+  </si>
+  <si>
+    <t>what-are</t>
+  </si>
+  <si>
+    <t>its-just</t>
+  </si>
+  <si>
+    <t>a-minute</t>
+  </si>
+  <si>
+    <t>a-lot</t>
+  </si>
+  <si>
+    <t>you-and</t>
+  </si>
+  <si>
+    <t>do-it</t>
+  </si>
+  <si>
+    <t>with-the</t>
+  </si>
+  <si>
+    <t>uh-i</t>
+  </si>
+  <si>
+    <t>mean-i</t>
+  </si>
+  <si>
+    <t>and-you</t>
+  </si>
+  <si>
+    <t>for-the</t>
+  </si>
+  <si>
+    <t>to-go</t>
+  </si>
+  <si>
+    <t>out-of</t>
+  </si>
+  <si>
+    <t>wait-a</t>
+  </si>
+  <si>
+    <t>talk-to</t>
+  </si>
+  <si>
+    <t>oh-no</t>
+  </si>
+  <si>
+    <t>in-a</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Joey &amp; Rachel</t>
+  </si>
+  <si>
+    <t>Monica &amp; Ross</t>
+  </si>
+  <si>
+    <t>Chandler &amp; Rachel</t>
+  </si>
+  <si>
+    <t>Ross &amp; Chandler</t>
+  </si>
+  <si>
+    <t>Monica &amp; Chandler</t>
+  </si>
+  <si>
+    <t>Monica &amp; Rachel</t>
+  </si>
+  <si>
+    <t>Monica &amp; Joey</t>
+  </si>
+  <si>
+    <t>Phoebe &amp; Chandler</t>
+  </si>
+  <si>
+    <t>Phoebe &amp; Joey</t>
+  </si>
+  <si>
+    <t>Ross &amp; Joey</t>
+  </si>
+  <si>
+    <t>Ross &amp; Rachel</t>
+  </si>
+  <si>
+    <t>Phoebe &amp; Rachel</t>
+  </si>
+  <si>
+    <t>Chandler &amp; Joey</t>
+  </si>
+  <si>
+    <t>Phoebe &amp; Ross</t>
+  </si>
+  <si>
+    <t>Monica &amp; Phoebe</t>
+  </si>
+  <si>
+    <t>Pairs</t>
+  </si>
+  <si>
+    <t>Distances</t>
+  </si>
+  <si>
+    <t>Sheldon &amp; Leonard</t>
+  </si>
+  <si>
+    <t>Sheldon &amp; Penny</t>
+  </si>
+  <si>
+    <t>Sheldon &amp; Raj</t>
+  </si>
+  <si>
+    <t>Penny &amp; Leonard</t>
+  </si>
+  <si>
+    <t>Sheldon &amp; Bernadette</t>
+  </si>
+  <si>
+    <t>Penny &amp; Bernadette</t>
+  </si>
+  <si>
+    <t>Leonard &amp; Bernadette</t>
+  </si>
+  <si>
+    <t>Penny &amp; Raj</t>
+  </si>
+  <si>
+    <t>Amy &amp; Bernadette</t>
+  </si>
+  <si>
+    <t>Penny &amp; Amy</t>
+  </si>
+  <si>
+    <t>Raj &amp; Bernadette</t>
+  </si>
+  <si>
+    <t>Sheldon &amp; Amy</t>
+  </si>
+  <si>
+    <t>Leonard &amp; Raj</t>
+  </si>
+  <si>
+    <t>Leonard &amp; Amy</t>
+  </si>
+  <si>
+    <t>Raj &amp; Amy</t>
+  </si>
+  <si>
+    <t>Average F-measure</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Average Recall for Z-score retrieval</t>
+  </si>
+  <si>
+    <t>Recall for Z-score method 1</t>
+  </si>
+  <si>
+    <t>F-measure for Z-score method2</t>
   </si>
 </sst>
 </file>
@@ -1549,6 +1955,5886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$3:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Joey &amp; Rachel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Monica &amp; Ross</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chandler &amp; Rachel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ross &amp; Chandler</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Monica &amp; Chandler</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monica &amp; Rachel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Monica &amp; Joey</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Phoebe &amp; Chandler</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Phoebe &amp; Joey</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ross &amp; Joey</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ross &amp; Rachel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Phoebe &amp; Rachel</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Chandler &amp; Joey</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Phoebe &amp; Ross</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Monica &amp; Phoebe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.23054334465099999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.241447101183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25900594277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26015017872599999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.283718813909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.312569161762</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31638825753099997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31713552273399997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31757651345400001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33125790229500002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33226556056000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33915472505200001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33925360084400003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35207204323199998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40605462828799999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0049-4939-843C-BAB4A8F835A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="476983080"/>
+        <c:axId val="476983736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="476983080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476983736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476983736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476983080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> betweeen characters in TBBT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$27:$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Sheldon &amp; Leonard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sheldon &amp; Penny</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sheldon &amp; Raj</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Penny &amp; Leonard</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sheldon &amp; Bernadette</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Penny &amp; Bernadette</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Leonard &amp; Bernadette</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Penny &amp; Raj</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Amy &amp; Bernadette</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Penny &amp; Amy</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Raj &amp; Bernadette</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sheldon &amp; Amy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leonard &amp; Raj</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Leonard &amp; Amy</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Raj &amp; Amy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$27:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.0122218709699998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7723219447399997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22319330625100001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22377640875999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25917193926799997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.260137972409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27439490408099998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27513354305600002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27860519141500001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28960202856200001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.297239835334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30268723152999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30711609682199997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33172552455999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.40090559659800001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12A8-4921-9069-8B3959A4AF04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="1041964672"/>
+        <c:axId val="1041967624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1041964672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1041967624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1041967624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1041964672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1219816272965872E-2"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$53:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Joey</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chandler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rachel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Monica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ross</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phoebe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$53:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CF4-4DBC-996D-01DB2CAE457B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="391901048"/>
+        <c:axId val="391901376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="391901048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391901376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="391901376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391901048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Recall for Z-score retrieval</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$66:$E$71</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Joey</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chandler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rachel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Monica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ross</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phoebe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$66:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB6F-40A6-B1A9-316F5835EE53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="891986872"/>
+        <c:axId val="891986544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="891986872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="891986544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="891986544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="891986872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall for Z-score method 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$85:$H$91</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Joey</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chandler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rachel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Monica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ross</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phoebe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$85:$I$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0EB-42E8-8638-E206885C10D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="887856568"/>
+        <c:axId val="887857552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="887856568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887857552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="887857552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887856568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-measure for Z-score method2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$99:$C$101</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Joey</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chandler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rachel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$99:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A33D-48A3-8808-6BE0442B40C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="888861080"/>
+        <c:axId val="888859112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="888861080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="888859112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="888859112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="888861080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABB29C5-E5E3-45BD-928A-D00BCBCAE54B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC847E4D-AA8E-4064-96CB-33CE52F77432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF94EB5-98E7-4337-9618-4E06A646558B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE2D9B8-5A86-4F80-B12A-16DC1B78E279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7588CB-55EA-4E0F-8BAC-40A4586EA31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1273175</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F4A8D6-7A4C-43C9-85BE-5A3D8B898575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1848,10 +8134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IQ10"/>
+  <dimension ref="A1:IQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:CM8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="B6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3346,7 +9632,1093 @@
         <v>490</v>
       </c>
     </row>
+    <row r="12" spans="1:251" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>88</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>93</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>94</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>99</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:251" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" t="s">
+        <v>498</v>
+      </c>
+      <c r="I14" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" t="s">
+        <v>501</v>
+      </c>
+      <c r="L14" t="s">
+        <v>502</v>
+      </c>
+      <c r="M14" t="s">
+        <v>503</v>
+      </c>
+      <c r="N14" t="s">
+        <v>504</v>
+      </c>
+      <c r="O14" t="s">
+        <v>505</v>
+      </c>
+      <c r="P14" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>507</v>
+      </c>
+      <c r="R14" t="s">
+        <v>508</v>
+      </c>
+      <c r="S14" t="s">
+        <v>509</v>
+      </c>
+      <c r="T14" t="s">
+        <v>510</v>
+      </c>
+      <c r="U14" t="s">
+        <v>511</v>
+      </c>
+      <c r="V14" t="s">
+        <v>512</v>
+      </c>
+      <c r="W14" t="s">
+        <v>513</v>
+      </c>
+      <c r="X14" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>523</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>528</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>529</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>531</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>532</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>533</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>534</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>535</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>536</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>537</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>538</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>539</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>540</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>541</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>256</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>542</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>543</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>544</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>546</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>547</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>548</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>549</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>550</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>551</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>552</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>553</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>555</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>556</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>557</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>558</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>559</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>560</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>561</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>257</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>562</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>262</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>563</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>564</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>565</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>566</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>567</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>568</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>569</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>570</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>571</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>572</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>573</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>574</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>575</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>576</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>577</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>578</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>579</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>580</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>581</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98:D101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3">
+        <v>0.23054334465099999</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4">
+        <v>0.241447101183</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F5">
+        <v>0.25900594277</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F6">
+        <v>0.26015017872599999</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F7">
+        <v>0.283718813909</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8">
+        <v>0.312569161762</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F9">
+        <v>0.31638825753099997</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>596</v>
+      </c>
+      <c r="F10">
+        <v>0.31713552273399997</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>597</v>
+      </c>
+      <c r="F11">
+        <v>0.31757651345400001</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>598</v>
+      </c>
+      <c r="F12">
+        <v>0.33125790229500002</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>599</v>
+      </c>
+      <c r="F13">
+        <v>0.33226556056000001</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14">
+        <v>0.33915472505200001</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>601</v>
+      </c>
+      <c r="F15">
+        <v>0.33925360084400003</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16">
+        <v>0.35207204323199998</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17">
+        <v>0.40605462828799999</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>604</v>
+      </c>
+      <c r="F26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>606</v>
+      </c>
+      <c r="F27">
+        <v>6.0122218709699998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>607</v>
+      </c>
+      <c r="F28">
+        <v>8.7723219447399997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>608</v>
+      </c>
+      <c r="F29">
+        <v>0.22319330625100001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>609</v>
+      </c>
+      <c r="F30">
+        <v>0.22377640875999999</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31">
+        <v>0.25917193926799997</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>611</v>
+      </c>
+      <c r="F32">
+        <v>0.260137972409</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F33">
+        <v>0.27439490408099998</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>613</v>
+      </c>
+      <c r="F34">
+        <v>0.27513354305600002</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>614</v>
+      </c>
+      <c r="F35">
+        <v>0.27860519141500001</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>615</v>
+      </c>
+      <c r="F36">
+        <v>0.28960202856200001</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>616</v>
+      </c>
+      <c r="F37">
+        <v>0.297239835334</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>617</v>
+      </c>
+      <c r="F38">
+        <v>0.30268723152999999</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>618</v>
+      </c>
+      <c r="F39">
+        <v>0.30711609682199997</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>619</v>
+      </c>
+      <c r="F40">
+        <v>0.33172552455999998</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>620</v>
+      </c>
+      <c r="F41">
+        <v>0.40090559659800001</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
+        <v>622</v>
+      </c>
+      <c r="F52" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E53" t="s">
+        <v>583</v>
+      </c>
+      <c r="F53">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E54" t="s">
+        <v>587</v>
+      </c>
+      <c r="F54">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E55" t="s">
+        <v>584</v>
+      </c>
+      <c r="F55">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E56" t="s">
+        <v>585</v>
+      </c>
+      <c r="F56">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E57" t="s">
+        <v>586</v>
+      </c>
+      <c r="F57">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E58" t="s">
+        <v>588</v>
+      </c>
+      <c r="F58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E65" t="s">
+        <v>622</v>
+      </c>
+      <c r="F65" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E66" t="s">
+        <v>583</v>
+      </c>
+      <c r="F66">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E67" t="s">
+        <v>587</v>
+      </c>
+      <c r="F67">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E68" t="s">
+        <v>584</v>
+      </c>
+      <c r="F68">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E69" t="s">
+        <v>585</v>
+      </c>
+      <c r="F69">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E70" t="s">
+        <v>586</v>
+      </c>
+      <c r="F70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E71" t="s">
+        <v>588</v>
+      </c>
+      <c r="F71">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H84" t="s">
+        <v>622</v>
+      </c>
+      <c r="I84" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H85" t="s">
+        <v>583</v>
+      </c>
+      <c r="I85">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H86" t="s">
+        <v>587</v>
+      </c>
+      <c r="I86">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H87" t="s">
+        <v>584</v>
+      </c>
+      <c r="I87">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H88" t="s">
+        <v>585</v>
+      </c>
+      <c r="I88">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H89" t="s">
+        <v>586</v>
+      </c>
+      <c r="I89">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H90" t="s">
+        <v>588</v>
+      </c>
+      <c r="I90">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>622</v>
+      </c>
+      <c r="D98" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>583</v>
+      </c>
+      <c r="D99">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>587</v>
+      </c>
+      <c r="D100">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>584</v>
+      </c>
+      <c r="D101">
+        <v>0.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>